--- a/correlaciones y significancias.xlsx
+++ b/correlaciones y significancias.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="507">
   <si>
     <t>indivi~d</t>
   </si>
@@ -1532,13 +1532,28 @@
   </si>
   <si>
     <t>-0.0451</t>
+  </si>
+  <si>
+    <t>0 - 10%</t>
+  </si>
+  <si>
+    <t>20%-50%</t>
+  </si>
+  <si>
+    <t>CORRELACIONES</t>
+  </si>
+  <si>
+    <t>NIVEL DE SIGNIFICANCIA</t>
+  </si>
+  <si>
+    <t>menor a 0,05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,8 +1561,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,6 +1586,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,7 +1664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1638,6 +1679,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1920,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2033,7 +2080,7 @@
       <c r="S7" t="s">
         <v>172</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="10" t="s">
         <v>429</v>
       </c>
       <c r="U7" s="1">
@@ -2067,7 +2114,7 @@
       <c r="J10" t="s">
         <v>86</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="10" t="s">
         <v>285</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -2079,7 +2126,7 @@
       <c r="S10" t="s">
         <v>187</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="10" t="s">
         <v>430</v>
       </c>
       <c r="U10" t="s">
@@ -2093,7 +2140,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2131,7 +2178,7 @@
       <c r="K13" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="10" t="s">
         <v>289</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -2157,10 +2204,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2175,10 +2222,10 @@
       <c r="M14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="8" t="s">
         <v>438</v>
       </c>
       <c r="V14" t="s">
@@ -2189,7 +2236,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -2213,7 +2260,7 @@
       <c r="L16" t="s">
         <v>295</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="10" t="s">
         <v>296</v>
       </c>
       <c r="N16" t="s">
@@ -2248,7 +2295,7 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2257,7 +2304,7 @@
       <c r="K17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="8" t="s">
         <v>299</v>
       </c>
       <c r="M17" s="7" t="s">
@@ -2286,13 +2333,13 @@
       <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2307,13 +2354,13 @@
       <c r="K19" t="s">
         <v>301</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="10" t="s">
         <v>302</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="10" t="s">
         <v>304</v>
       </c>
       <c r="O19" s="9" t="s">
@@ -2331,13 +2378,13 @@
       <c r="U19" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="10" t="s">
         <v>448</v>
       </c>
       <c r="W19" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="10" t="s">
         <v>449</v>
       </c>
       <c r="Y19" s="1">
@@ -2428,10 +2475,10 @@
       <c r="M22" t="s">
         <v>312</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="10" t="s">
         <v>314</v>
       </c>
       <c r="P22" t="s">
@@ -2443,7 +2490,7 @@
       <c r="S22" t="s">
         <v>247</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="10" t="s">
         <v>455</v>
       </c>
       <c r="U22" t="s">
@@ -2458,7 +2505,7 @@
       <c r="X22" t="s">
         <v>387</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="10" t="s">
         <v>459</v>
       </c>
       <c r="Z22" s="1">
@@ -2490,7 +2537,7 @@
       <c r="L23" t="s">
         <v>317</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="8" t="s">
         <v>114</v>
       </c>
       <c r="N23" s="7" t="s">
@@ -2505,7 +2552,7 @@
       <c r="T23" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="8" t="s">
         <v>461</v>
       </c>
       <c r="V23" t="s">
@@ -2514,7 +2561,7 @@
       <c r="W23" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="8" t="s">
         <v>464</v>
       </c>
       <c r="Y23" s="7" t="s">
@@ -2558,13 +2605,13 @@
       <c r="M25" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="11" t="s">
         <v>322</v>
       </c>
       <c r="O25" t="s">
         <v>323</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="11" t="s">
         <v>324</v>
       </c>
       <c r="Q25" t="s">
@@ -2579,13 +2626,13 @@
       <c r="U25" t="s">
         <v>466</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="10" t="s">
         <v>467</v>
       </c>
       <c r="W25" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" s="10" t="s">
         <v>469</v>
       </c>
       <c r="Y25" t="s">
@@ -2629,7 +2676,7 @@
       <c r="N26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="8" t="s">
         <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
@@ -2641,7 +2688,7 @@
       <c r="T26" t="s">
         <v>472</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" s="8" t="s">
         <v>473</v>
       </c>
       <c r="V26" s="7" t="s">
@@ -2653,7 +2700,7 @@
       <c r="X26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="8" t="s">
         <v>476</v>
       </c>
       <c r="Z26" t="s">
@@ -2667,22 +2714,22 @@
       <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="8" t="s">
         <v>76</v>
       </c>
       <c r="G28" t="s">
         <v>77</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J28" t="s">
@@ -2703,10 +2750,10 @@
       <c r="O28" t="s">
         <v>333</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="10" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2714,16 +2761,16 @@
       <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G29" t="s">
@@ -2741,7 +2788,7 @@
       <c r="M29" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="8" t="s">
         <v>339</v>
       </c>
       <c r="O29" t="s">
@@ -2788,19 +2835,19 @@
       <c r="K31" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="10" t="s">
         <v>344</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="10" t="s">
         <v>346</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="10" t="s">
         <v>348</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -2814,7 +2861,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C32" t="s">
@@ -2869,19 +2916,19 @@
       <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="10" t="s">
         <v>108</v>
       </c>
       <c r="J34" t="s">
@@ -2896,7 +2943,7 @@
       <c r="M34" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="10" t="s">
         <v>360</v>
       </c>
       <c r="O34" s="9" t="s">
@@ -2913,19 +2960,19 @@
       <c r="B35" t="s">
         <v>109</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -2946,10 +2993,10 @@
       <c r="O35" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="8" t="s">
         <v>370</v>
       </c>
     </row>
@@ -2972,7 +3019,7 @@
       <c r="F37" t="s">
         <v>121</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="10" t="s">
         <v>122</v>
       </c>
       <c r="H37" t="s">
@@ -2987,10 +3034,10 @@
       <c r="L37" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="10" t="s">
         <v>374</v>
       </c>
       <c r="O37" s="9" t="s">
@@ -3016,13 +3063,13 @@
       <c r="E38" t="s">
         <v>127</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="8" t="s">
         <v>128</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="8" t="s">
         <v>129</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3069,7 +3116,7 @@
       <c r="G40" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="10" t="s">
         <v>137</v>
       </c>
       <c r="J40" t="s">
@@ -3084,7 +3131,7 @@
       <c r="M40" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="10" t="s">
         <v>344</v>
       </c>
       <c r="O40" t="s">
@@ -3119,10 +3166,10 @@
       <c r="H41" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="8" t="s">
         <v>390</v>
       </c>
       <c r="M41" s="7" t="s">
@@ -3131,10 +3178,10 @@
       <c r="N41" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="8" t="s">
         <v>394</v>
       </c>
       <c r="Q41" s="8" t="s">
@@ -3172,7 +3219,7 @@
       <c r="K43" t="s">
         <v>396</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="10" t="s">
         <v>397</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -3184,10 +3231,10 @@
       <c r="O43" t="s">
         <v>400</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="10" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3201,10 +3248,10 @@
       <c r="D44" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="8" t="s">
         <v>155</v>
       </c>
       <c r="G44" s="7" t="s">
@@ -3225,7 +3272,7 @@
       <c r="N44" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="8" t="s">
         <v>405</v>
       </c>
       <c r="P44" s="7" t="s">
@@ -3257,7 +3304,7 @@
       <c r="G46" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="10" t="s">
         <v>165</v>
       </c>
       <c r="J46" t="s">
@@ -3269,7 +3316,7 @@
       <c r="L46" t="s">
         <v>409</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="10" t="s">
         <v>410</v>
       </c>
       <c r="N46" s="9" t="s">
@@ -3310,7 +3357,7 @@
       <c r="K47" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="8" t="s">
         <v>416</v>
       </c>
       <c r="M47" s="7" t="s">
@@ -3334,7 +3381,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -3356,11 +3403,11 @@
       <c r="G49" t="s">
         <v>178</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>180</v>
       </c>
@@ -3376,21 +3423,21 @@
       <c r="F50" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="8" t="s">
         <v>185</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>187</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="10" t="s">
         <v>189</v>
       </c>
       <c r="D52" t="s">
@@ -3408,8 +3455,12 @@
       <c r="H52" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>195</v>
       </c>
@@ -3431,8 +3482,23 @@
       <c r="H53" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K53" s="12"/>
+      <c r="L53" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="G54" s="8"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -3451,21 +3517,27 @@
       <c r="F55" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="8" t="s">
         <v>208</v>
       </c>
       <c r="H55" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K55" s="12"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>210</v>
       </c>
       <c r="C56" t="s">
         <v>211</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -3474,14 +3546,25 @@
       <c r="F56" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="G57" s="8"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -3491,7 +3574,7 @@
       <c r="C58" t="s">
         <v>219</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
         <v>220</v>
       </c>
       <c r="E58" t="s">
@@ -3506,9 +3589,15 @@
       <c r="H58" s="9" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+      <c r="K58" s="12"/>
+      <c r="L58" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C59" t="s">
@@ -3523,24 +3612,36 @@
       <c r="F59" t="s">
         <v>229</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="8" t="s">
         <v>230</v>
       </c>
       <c r="H59" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K59" s="12"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>232</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3552,24 +3653,24 @@
       <c r="G61" t="s">
         <v>238</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="8" t="s">
         <v>244</v>
       </c>
       <c r="G62" t="s">
@@ -3579,11 +3680,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>247</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -3605,7 +3710,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>255</v>
       </c>
@@ -3621,14 +3726,14 @@
       <c r="F65" t="s">
         <v>259</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>262</v>
       </c>
@@ -3653,8 +3758,12 @@
       <c r="H67" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>269</v>
       </c>
@@ -3677,13 +3786,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.3">
